--- a/relatorios/repasses_liberados/dentistas/10123572444/2023-08-25_relatorio_repasses_10123572444.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10123572444/2023-08-25_relatorio_repasses_10123572444.xlsx
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5706,10 +5706,10 @@
         <v>0.4625</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>27.38</v>
+        <v>20.535</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/10123572444/2023-08-25_relatorio_repasses_10123572444.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10123572444/2023-08-25_relatorio_repasses_10123572444.xlsx
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2802,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N48">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>9.843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N65">
-        <v>9.843</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N67">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N84">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N183">
         <v>0</v>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N190">
         <v>0</v>
